--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.9.xlsm 2018-08-14 16-29-55/6.9_Step1_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.9.xlsm 2018-08-14 16-29-55/6.9_Step1_Initial.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.9.xlsm 2018-08-14 16-29-55\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="24090" windowHeight="9960"/>
+    <workbookView xWindow="-60" yWindow="80" windowWidth="25340" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
@@ -30,8 +25,11 @@
     <definedName name="Year_1_variable_cost_of_production">'6.9_Step1_Initial'!$B$12</definedName>
     <definedName name="Years_till_demand_steady_state">'6.9_Step1_Initial'!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -98,8 +96,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -191,27 +189,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -219,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -290,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -325,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -502,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,21 +508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -533,7 +531,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -544,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -553,77 +551,77 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -632,19 +630,19 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>40909</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -653,5 +651,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>